--- a/config/IDNumberGenerate.xlsx
+++ b/config/IDNumberGenerate.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AB0229G\MyWorkspace\sti-generate-sa-id\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB73B54D-131D-4E13-80DF-FC3BC716FF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BAB73A-D4E0-40CE-9904-F30FBB584BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5B1AD5A9-55D3-4826-903F-B0A0A26AAB13}"/>
+    <workbookView xWindow="5490" yWindow="3735" windowWidth="15300" windowHeight="7875" xr2:uid="{5B1AD5A9-55D3-4826-903F-B0A0A26AAB13}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test1" sheetId="4" r:id="rId1"/>
+    <sheet name="InputData" sheetId="4" r:id="rId1"/>
     <sheet name="SampleData" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="4">
   <si>
     <t>M</t>
   </si>
@@ -56,8 +56,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyymmdd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -100,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -109,6 +117,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,38 +438,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E136C66-82B3-4A5E-A056-F5B8AC5D2928}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>19590204</v>
+      <c r="A2" s="6">
+        <v>32347</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>19260717</v>
+      <c r="A3" s="6">
+        <v>24306</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>22485</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>28324</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>27230</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>13348</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>23943</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>23047</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>27596</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>18462</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -466,7 +547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968C7852-BF44-4BD5-9AF1-41F282A84B30}">
   <dimension ref="A1:B1540"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
